--- a/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
+++ b/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575000E4-6FDC-4B45-BC1E-8CE2E19869A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEA7A1-4C8A-5142-9682-0B87A4F751A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43360" yWindow="500" windowWidth="21740" windowHeight="13020" xr2:uid="{CEEEE075-D446-1041-81EF-199B4E777C67}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,11 +646,11 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -664,11 +664,11 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>

--- a/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
+++ b/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEA7A1-4C8A-5142-9682-0B87A4F751A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77457A5-9EBF-AB4E-A61B-9CB91A44ABCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43360" yWindow="500" windowWidth="21740" windowHeight="13020" xr2:uid="{CEEEE075-D446-1041-81EF-199B4E777C67}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,11 +502,11 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <f>C2/B2</f>
-        <v>0.81818181818181823</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -520,11 +520,11 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D19" si="0">C3/B3</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -556,11 +556,11 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -574,11 +574,11 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -610,11 +610,11 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -628,11 +628,11 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -646,11 +646,11 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -679,14 +679,14 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
@@ -751,14 +751,14 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
@@ -772,11 +772,11 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>

--- a/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
+++ b/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77457A5-9EBF-AB4E-A61B-9CB91A44ABCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E122025-655B-AD4D-A9F3-FC5576A3F341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43360" yWindow="500" windowWidth="21740" windowHeight="13020" xr2:uid="{CEEEE075-D446-1041-81EF-199B4E777C67}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,11 +502,11 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <f>C2/B2</f>
-        <v>0.90909090909090906</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -520,11 +520,11 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D19" si="0">C3/B3</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -592,11 +592,11 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -610,11 +610,11 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>

--- a/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
+++ b/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E122025-655B-AD4D-A9F3-FC5576A3F341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887AAF28-3440-2249-A43F-68CE5A296DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43360" yWindow="500" windowWidth="21740" windowHeight="13020" xr2:uid="{CEEEE075-D446-1041-81EF-199B4E777C67}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,11 +502,11 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <f>C2/B2</f>
-        <v>0.81818181818181823</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -592,11 +592,11 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -772,11 +772,11 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>

--- a/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
+++ b/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887AAF28-3440-2249-A43F-68CE5A296DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B697ACD-C701-6440-9810-46FFA614D2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43360" yWindow="500" windowWidth="21740" windowHeight="13020" xr2:uid="{CEEEE075-D446-1041-81EF-199B4E777C67}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Hospital</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>H do Coração</t>
+  </si>
+  <si>
+    <t>Hospital Renascença</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D2C61B-0449-114E-B9B5-77B04EEAF629}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D19" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D20" si="0">C3/B3</f>
         <v>0.45</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -815,6 +818,24 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
+++ b/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B697ACD-C701-6440-9810-46FFA614D2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C8C740-5095-B048-8F7C-E5A91A9BE724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43360" yWindow="500" windowWidth="21740" windowHeight="13020" xr2:uid="{CEEEE075-D446-1041-81EF-199B4E777C67}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,11 +505,11 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <f>C2/B2</f>
-        <v>0.72727272727272729</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -559,11 +559,11 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -577,11 +577,11 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -592,14 +592,14 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -613,11 +613,11 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -631,11 +631,11 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -649,11 +649,11 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -667,11 +667,11 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -685,11 +685,11 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
@@ -703,11 +703,11 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -718,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -757,11 +757,11 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
@@ -775,11 +775,11 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>

--- a/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
+++ b/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C8C740-5095-B048-8F7C-E5A91A9BE724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC020FBD-E3C2-074C-946D-5B342ECE22A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43360" yWindow="500" windowWidth="21740" windowHeight="13020" xr2:uid="{CEEEE075-D446-1041-81EF-199B4E777C67}"/>
   </bookViews>
@@ -523,11 +523,11 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D20" si="0">C3/B3</f>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -667,11 +667,11 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -775,11 +775,11 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>

--- a/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
+++ b/Sergipe/data_general/ocupacao_uti_hospitais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC020FBD-E3C2-074C-946D-5B342ECE22A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC3749-00ED-6046-8046-DC32FB7E9C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43360" yWindow="500" windowWidth="21740" windowHeight="13020" xr2:uid="{CEEEE075-D446-1041-81EF-199B4E777C67}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,14 +502,14 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <f>C2/B2</f>
-        <v>0.27272727272727271</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -523,11 +523,11 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D20" si="0">C3/B3</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -574,14 +574,14 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -595,11 +595,11 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -667,11 +667,11 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -685,11 +685,11 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
@@ -703,11 +703,11 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -775,11 +775,11 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
